--- a/biology/Botanique/Certeau_d'automne/Certeau_d'automne.xlsx
+++ b/biology/Botanique/Certeau_d'automne/Certeau_d'automne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Certeau_d%27automne</t>
+          <t>Certeau_d'automne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Certeau d'automne est une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certeau_d%27automne</t>
+          <t>Certeau_d'automne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rouge de Monteuil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Rouge de Monteuil.
 Petit Certeau Bellissime d'automne.
 Vermillon.
 Poire de Fusée d'automne. (ou Fusée d'Automne tout court)
 Cuisse Dame (par erreur).
-Sarteau (dans les Alpes)[2].
+Sarteau (dans les Alpes).
 Essarteau
 Herbst-Spindelbirne</t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certeau_d%27automne</t>
+          <t>Certeau_d'automne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit existe déjà en 1540[1].
-Il est d'une origine ancienne et inconnue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit existe déjà en 1540.
+Il est d'une origine ancienne et inconnue.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Certeau_d%27automne</t>
+          <t>Certeau_d'automne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette poire a une peau jaune doré, avec une petite nuance de rose côté insolation.
 À la chair cassante, c'est une poire à cuire ne se défaisant pas à la cuisson et virant à un léger rosé en confiture.
-La maturité est relevée d'octobre à décembre[1].
+La maturité est relevée d'octobre à décembre.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Certeau_d%27automne</t>
+          <t>Certeau_d'automne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,6 +632,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
